--- a/data/trans_bre/P23_9_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,35</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,69%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>110,04%</t>
+          <t>-59,95%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-65,41%</t>
         </is>
       </c>
     </row>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 14,14</t>
+          <t>-12,16; 12,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 6,84</t>
+          <t>-24,08; 3,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 10,45</t>
+          <t>-13,28; 12,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 1040,19</t>
+          <t>-25,5; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>130,71%</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>103,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>162,99%</t>
+          <t>32,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33,8%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>236,32%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 13,13</t>
+          <t>-4,59; 12,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 18,58</t>
+          <t>-24,59; 23,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 26,61</t>
+          <t>-28,53; 23,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 1010,11</t>
+          <t>-0,86; 19,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 989,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 2142,85</t>
+          <t>-72,29; 770,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-79,15; 1109,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-51,98; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-10,29</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-36,66%</t>
+          <t>-16,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>-8,66%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-66,27%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 3,25</t>
+          <t>-12,16; 14,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 12,67</t>
+          <t>-14,76; 11,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 16,57</t>
+          <t>-8,98; 18,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 21,34</t>
+          <t>-29,08; -2,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 123,03</t>
+          <t>-43,95; 127,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-47,78; 123,83</t>
+          <t>-49,63; 77,3</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; 129,77</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-86,59; -5,79</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>9,63</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-6,6%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>-2,62%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-2,11%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 13,92</t>
+          <t>-0,79; 19,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 8,66</t>
+          <t>-12,72; 11,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 17,97</t>
+          <t>-4,42; 18,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 164,53</t>
+          <t>-9,83; 9,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 45,55</t>
+          <t>-10,5; 376,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 160,96</t>
+          <t>-43,93; 83,46</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-23,42; 202,7</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-52,41; 118,11</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>14,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-24,71%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>-10,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>253,24%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 9,38</t>
+          <t>-19,2; 8,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 10,05</t>
+          <t>-23,67; 14,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 16,8</t>
+          <t>-9,32; 21,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-45,31; 73,05</t>
+          <t>2,87; 28,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 54,18</t>
+          <t>-69,21; 67,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 116,21</t>
+          <t>-59,48; 71,55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-36,89; 171,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 1487,54</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,52</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>10,95</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-30,02%</t>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-16,78%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63,24%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 13,63</t>
+          <t>-13,72; 20,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 27,02</t>
+          <t>-13,58; 23,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 6,24</t>
+          <t>-21,56; 12,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,65; 92,43</t>
+          <t>-11,29; 32,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 202,69</t>
+          <t>-65,77; 330,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,34; 32,79</t>
+          <t>-56,85; 243,85</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-74,98; 138,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-46,73; 471,19</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23,84%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15,16%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 5,11</t>
+          <t>-2,19; 8,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,46</t>
+          <t>-9,13; 6,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 10,59</t>
+          <t>-4,01; 9,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 41,37</t>
+          <t>-4,15; 7,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 51,65</t>
+          <t>-13,52; 86,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 85,05</t>
+          <t>-34,86; 37,36</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 73,7</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-26,24; 83,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_9_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,177 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-8,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>46,61%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-59,95%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>18,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-65,41%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.791188302989768</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.519677852146469</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.243517818854299</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-6.937687464177997</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.772248311191104</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.612887459359907</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1863862409209426</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.6090053558030619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,16; 12,18</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-24,08; 3,88</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,28; 12,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,5; 3,77</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.042667173960798</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-24.40111367789467</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.42407499361546</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.40454696706115</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>28.55032856216983</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.036623228035831</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>12.39634861277547</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.458576596031934</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,75</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>103,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>32,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,8%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>236,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 12,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,59; 23,39</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-28,53; 23,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 19,97</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-72,29; 770,71</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-79,15; 1109,35</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-51,98; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.537687416643521</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.631679516882429</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.751940892534722</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.832620798962694</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.376876001119869</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3220521242750517</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4391828681138092</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.637304478900095</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-16,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-8,66%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>17,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-66,27%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.684162402580527</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-18.78808245552397</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-25.72449608841439</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.07890993171576263</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.6599645924980457</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.7562603301108706</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5274923460446339</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,16; 14,14</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,76; 11,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 18,48</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-29,08; -2,05</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-43,95; 127,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-49,63; 77,3</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-31,17; 129,77</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-86,59; -5,79</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.0172040026876</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.42026822930209</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>24.14306802298507</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>19.89938636792103</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>6.063166352742051</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>12.66080237983857</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +805,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>9,63</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>97,94%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,62%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>40,64%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-2,11%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.459846005008351</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.711515022237883</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.999234489798145</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-17.04240264204571</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.108371176026798</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.07829419806871842</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1825877284288764</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.6736088192690814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 19,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,72; 11,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 18,43</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-9,83; 9,45</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-10,5; 376,1</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-43,93; 83,46</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,42; 202,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-52,41; 118,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.631593432353</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.43667913432988</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.397918899828618</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-30.68270100339072</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5110629901325294</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4935713450555439</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3260901743162218</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.874368524073434</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.37055118962348</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.46541681877328</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.00431047929207</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-1.869710239367884</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>1.00935757583717</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.7957690003467106</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.30078109608518</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.08325392183371061</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,32</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,75</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-24,71%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-10,01%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>27,07%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>253,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-19,2; 8,55</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-23,67; 14,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 21,93</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 28,93</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-69,21; 67,37</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-59,48; 71,55</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-36,89; 171,65</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 1487,54</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>10.46352266292747</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.388028066636828</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.258801147633095</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.322662030577634</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.032208143602825</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.017479041737483</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.464361819359661</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.0882234177383794</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,31</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>10,95</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>24,71%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-16,78%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>63,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3611555822594795</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-11.81683089127797</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.477665317248376</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.32486437434838</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.07816721290736738</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.420581439769656</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1968570310637025</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5607316543836591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; 20,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; 23,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-21,56; 12,54</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-11,29; 32,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-65,77; 330,88</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-56,85; 243,85</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-74,98; 138,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-46,73; 471,19</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.17106453571741</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.02932773680739</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>18.7756698861207</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.966418935578666</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>4.140152431909231</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9219022727277927</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.056087892575705</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.031718456569061</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1005,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>22,54%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-4,36%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>23,84%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>15,16%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.237146455834138</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-2.488201379087879</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>5.862508040192865</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>13.67300972078556</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.2486979795948819</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.08042196428278492</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.3174627361569153</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>2.477092976390949</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,19; 8,52</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,13; 6,12</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 9,87</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 7,94</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-13,52; 86,14</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-34,86; 37,36</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-18,76; 73,7</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-26,24; 83,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-19.17404488513773</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.85923497008705</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.903067362106735</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2.281182267362325</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.6898558757883981</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.5867097929137333</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.3523236543053937</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.01788728702291719</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.113247894380047</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>16.0483969279347</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>23.0041346574692</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>27.01904523435348</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.6764044069150075</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.804349142309371</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>1.758295332933314</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>14.13153757248713</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2.86525305032764</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>7.08705930537045</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-3.633525806277321</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>12.98530141981528</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1954175577699769</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.4016836389168175</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.188007374960222</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.7360283544246324</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-12.24089187162473</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-11.68622772699823</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-21.45142928377617</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-8.619602809112854</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.6334102385696766</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.5134954898146415</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.7562244479976659</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.3876042860803234</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>21.83246350765751</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>27.21314677843662</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.93797876195422</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>35.31941230612831</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>4.021859039811654</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2.907545018270386</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1.344693625094427</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>5.228319489636223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>3.463274535809649</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.4191864275029017</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.358988865180508</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.830611452462894</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.2708777296532827</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.02029097099366527</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.271072409626619</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.1445853405017292</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-1.743085744909552</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-8.165380599392877</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.741076401196886</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-4.335715679958127</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.1247527734028461</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.317538328887335</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.1772919615152733</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.277672672194509</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.343772412543096</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.59237810797525</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.970963270658919</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>8.084069719560222</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.9150200444612251</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.3953574309389418</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.7949295082206156</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.8074266543568164</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1303,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
